--- a/sales.xlsx
+++ b/sales.xlsx
@@ -4,41 +4,26 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,33 +43,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -441,331 +409,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="24.73" customWidth="1" style="1" min="1" max="1"/>
-    <col width="23.61" customWidth="1" style="1" min="2" max="2"/>
-    <col width="18.33" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.29" customWidth="1" style="1" min="4" max="4"/>
-    <col width="27.65" customWidth="1" style="1" min="5" max="5"/>
-    <col width="48.9" customWidth="1" style="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Product Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity Sold</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Master</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Charger</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>18:05:50</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14:59:54</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Master</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>18:11:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Mstar MX-623</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Headphone</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ooredoo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SIM Card</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>18:31:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Iphon</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Charger</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>18:47:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Mstar MX-623</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Headphone</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>20:08:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Adata</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Flash USB</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>16 GB</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>01:27:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>MOBLIS</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>SIM Card</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>01:32:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MOBLIS</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>SIM Card</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>01:43:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mstar MX-623</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Headphone</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>01:45:01</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15:29:53</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sales.xlsx
+++ b/sales.xlsx
@@ -4,26 +4,41 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,16 +58,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -409,126 +441,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="48.77" customWidth="1" style="1" min="1" max="1"/>
+    <col width="24.17" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.61" customWidth="1" style="1" min="3" max="3"/>
+    <col width="16.53" customWidth="1" style="1" min="4" max="4"/>
+    <col width="16.81" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.42" customWidth="1" style="1" min="6" max="6"/>
+    <col width="22.36" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.56" customWidth="1" style="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="2">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>679c7f07-6191-4a36-a125-a9f7c7e989c1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Master</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-09-08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>14:59:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ooredoo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SIM Card</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-09-08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15:29:53</t>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>17:28:38</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/sales.xlsx
+++ b/sales.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -545,6 +545,206 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>c161e675-a9a0-49f6-957b-3fc3eedc5b99</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>ooredoo</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>SIM Card</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>DIMA</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>20:38:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b51f35fd-d5b3-45e0-807d-cb95078d64b5</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>20:39:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>8b6e27cf-3bd7-4a7b-a085-5f9d1805f7b2</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>21:34:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>67bec3f9-8d9b-4a02-9c4e-06b70a131d29</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>LDNIO</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Type C</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>21:54:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c40f6909-09f5-4ded-85c2-c5c153f7502b</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OOREDOO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SIM Card</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIMA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22:01:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -706,42 +706,82 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>c40f6909-09f5-4ded-85c2-c5c153f7502b</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>OOREDOO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>SIM Card</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>DIMA</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>2024-09-10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>22:01:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>95d64029-3b57-46ea-b0a6-8f8f87821cdc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>xksksjd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Soft Drinks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7UP</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15:47:20</t>
         </is>
       </c>
     </row>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -588,7 +588,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>b51f35fd-d5b3-45e0-807d-cb95078d64b5</t>
+          <t>8b6e27cf-3bd7-4a7b-a085-5f9d1805f7b2</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -621,37 +621,37 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>20:39:55</t>
+          <t>21:34:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>8b6e27cf-3bd7-4a7b-a085-5f9d1805f7b2</t>
+          <t>67bec3f9-8d9b-4a02-9c4e-06b70a131d29</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Master</t>
+          <t>LDNIO</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Type C</t>
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>400.0</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -661,29 +661,29 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>21:34:40</t>
+          <t>21:54:37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>67bec3f9-8d9b-4a02-9c4e-06b70a131d29</t>
+          <t>c40f6909-09f5-4ded-85c2-c5c153f7502b</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>LDNIO</t>
+          <t>OOREDOO</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>SIM Card</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Type C</t>
+          <t>DIMA</t>
         </is>
       </c>
       <c r="E6" s="1" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>400.0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>21:54:37</t>
+          <t>22:01:02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>c40f6909-09f5-4ded-85c2-c5c153f7502b</t>
+          <t>95d64029-3b57-46ea-b0a6-8f8f87821cdc</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>OOREDOO</t>
+          <t>xksksjd</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>SIM Card</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>DIMA</t>
+          <t>7UP</t>
         </is>
       </c>
       <c r="E7" s="1" t="n">
@@ -731,55 +731,15 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>22:01:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>95d64029-3b57-46ea-b0a6-8f8f87821cdc</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>xksksjd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7UP</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>15:47:20</t>
         </is>

--- a/sales.xlsx
+++ b/sales.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
@@ -745,6 +745,46 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0aaa9aff-2607-4dd3-81ed-526fef74f95d</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>hcdihcid</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Flash USB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>128 GB</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>17:51:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
